--- a/개선아이디어_Template_v2.xlsx
+++ b/개선아이디어_Template_v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\소코\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Desktop\git\Tetris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA0ACAF3-8245-4FCA-92B6-2A0BED95DCE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C933DB0E-C60C-4E61-A7B3-499ABDF2E82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CA100164-1E71-418A-959D-44448BCAE4E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CA100164-1E71-418A-959D-44448BCAE4E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="189">
   <si>
     <t>조번호</t>
   </si>
@@ -1346,6 +1357,14 @@
   </si>
   <si>
     <t>테마추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 추가 - 원하는 블록 모양 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록이 들어갈 부분 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2126,104 +2145,104 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2759,10 +2778,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B3:I107"/>
+  <dimension ref="B3:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2778,26 +2797,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="104"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="107"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
@@ -2820,7 +2839,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="98" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -2835,13 +2854,13 @@
       <c r="F7" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="86">
         <f>SUM(E7:E19)</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="92"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="19" t="s">
         <v>152</v>
       </c>
@@ -2854,10 +2873,10 @@
       <c r="F8" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="92"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="19" t="s">
         <v>153</v>
       </c>
@@ -2870,10 +2889,10 @@
       <c r="F9" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G9" s="86"/>
+      <c r="G9" s="87"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="92"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="72" t="s">
         <v>154</v>
       </c>
@@ -2886,10 +2905,10 @@
       <c r="F10" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="86"/>
+      <c r="G10" s="87"/>
     </row>
     <row r="11" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="92"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="72" t="s">
         <v>155</v>
       </c>
@@ -2902,10 +2921,10 @@
       <c r="F11" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="86"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="92"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="72" t="s">
         <v>156</v>
       </c>
@@ -2918,10 +2937,10 @@
       <c r="F12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="G12" s="86"/>
+      <c r="G12" s="87"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="92"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="72" t="s">
         <v>157</v>
       </c>
@@ -2934,10 +2953,10 @@
       <c r="F13" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="G13" s="86"/>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="92"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="72" t="s">
         <v>158</v>
       </c>
@@ -2950,10 +2969,10 @@
       <c r="F14" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G14" s="86"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="92"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="72" t="s">
         <v>159</v>
       </c>
@@ -2966,10 +2985,10 @@
       <c r="F15" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="G15" s="86"/>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="92"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="72" t="s">
         <v>160</v>
       </c>
@@ -2980,10 +2999,10 @@
       <c r="F16" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="86"/>
+      <c r="G16" s="87"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="92"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="72" t="s">
         <v>161</v>
       </c>
@@ -2996,10 +3015,10 @@
       <c r="F17" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="86"/>
+      <c r="G17" s="87"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="92"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="72" t="s">
         <v>162</v>
       </c>
@@ -3010,10 +3029,10 @@
       <c r="F18" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="86"/>
+      <c r="G18" s="87"/>
     </row>
     <row r="19" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="92"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="74" t="s">
         <v>163</v>
       </c>
@@ -3026,10 +3045,10 @@
       <c r="F19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="86"/>
+      <c r="G19" s="87"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="104" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="37" t="s">
@@ -3044,13 +3063,13 @@
       <c r="F20" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="88">
         <f>SUM(E20:E31)</f>
         <v>10.75</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="93"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="32" t="s">
         <v>22</v>
       </c>
@@ -3063,10 +3082,10 @@
       <c r="F21" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="90"/>
+      <c r="G21" s="89"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="93"/>
+      <c r="B22" s="105"/>
       <c r="C22" s="32" t="s">
         <v>23</v>
       </c>
@@ -3079,10 +3098,10 @@
       <c r="F22" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="90"/>
+      <c r="G22" s="89"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="93"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="32" t="s">
         <v>24</v>
       </c>
@@ -3095,10 +3114,10 @@
       <c r="F23" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="90"/>
+      <c r="G23" s="89"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="93"/>
+      <c r="B24" s="105"/>
       <c r="C24" s="34" t="s">
         <v>25</v>
       </c>
@@ -3111,10 +3130,10 @@
       <c r="F24" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="90"/>
+      <c r="G24" s="89"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="93"/>
+      <c r="B25" s="105"/>
       <c r="C25" s="34" t="s">
         <v>26</v>
       </c>
@@ -3127,10 +3146,10 @@
       <c r="F25" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="90"/>
+      <c r="G25" s="89"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="93"/>
+      <c r="B26" s="105"/>
       <c r="C26" s="34" t="s">
         <v>27</v>
       </c>
@@ -3143,10 +3162,10 @@
       <c r="F26" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="90"/>
+      <c r="G26" s="89"/>
     </row>
     <row r="27" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="93"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="34" t="s">
         <v>28</v>
       </c>
@@ -3159,10 +3178,10 @@
       <c r="F27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="90"/>
+      <c r="G27" s="89"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="93"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="32" t="s">
         <v>29</v>
       </c>
@@ -3175,10 +3194,10 @@
       <c r="F28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="90"/>
+      <c r="G28" s="89"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="93"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="32" t="s">
         <v>30</v>
       </c>
@@ -3191,10 +3210,10 @@
       <c r="F29" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="G29" s="90"/>
+      <c r="G29" s="89"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="93"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="32" t="s">
         <v>31</v>
       </c>
@@ -3207,10 +3226,10 @@
       <c r="F30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="90"/>
+      <c r="G30" s="89"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="94"/>
+      <c r="B31" s="106"/>
       <c r="C31" s="35" t="s">
         <v>32</v>
       </c>
@@ -3223,10 +3242,10 @@
       <c r="F31" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="91"/>
+      <c r="G31" s="90"/>
     </row>
     <row r="32" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="107" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="40" t="s">
@@ -3239,13 +3258,13 @@
       <c r="F32" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="109">
+      <c r="G32" s="91">
         <f>SUM(E32:E41)</f>
         <v>21.5</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="96"/>
+      <c r="B33" s="108"/>
       <c r="C33" s="43" t="s">
         <v>34</v>
       </c>
@@ -3254,10 +3273,10 @@
       <c r="F33" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G33" s="110"/>
+      <c r="G33" s="92"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="96"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="43" t="s">
         <v>35</v>
       </c>
@@ -3268,10 +3287,10 @@
       <c r="F34" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="G34" s="110"/>
+      <c r="G34" s="92"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="96"/>
+      <c r="B35" s="108"/>
       <c r="C35" s="43" t="s">
         <v>36</v>
       </c>
@@ -3282,10 +3301,10 @@
       <c r="F35" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="110"/>
+      <c r="G35" s="92"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="96"/>
+      <c r="B36" s="108"/>
       <c r="C36" s="43" t="s">
         <v>37</v>
       </c>
@@ -3296,10 +3315,10 @@
       <c r="F36" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="G36" s="110"/>
+      <c r="G36" s="92"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="96"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="43" t="s">
         <v>98</v>
       </c>
@@ -3310,10 +3329,10 @@
       <c r="F37" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="110"/>
+      <c r="G37" s="92"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="96"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="43" t="s">
         <v>38</v>
       </c>
@@ -3324,10 +3343,10 @@
       <c r="F38" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="110"/>
+      <c r="G38" s="92"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="96"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="43" t="s">
         <v>39</v>
       </c>
@@ -3338,10 +3357,10 @@
       <c r="F39" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="G39" s="110"/>
+      <c r="G39" s="92"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="96"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="43" t="s">
         <v>40</v>
       </c>
@@ -3352,10 +3371,10 @@
       <c r="F40" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="110"/>
+      <c r="G40" s="92"/>
     </row>
     <row r="41" spans="2:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="97"/>
+      <c r="B41" s="109"/>
       <c r="C41" s="46" t="s">
         <v>41</v>
       </c>
@@ -3366,10 +3385,10 @@
       <c r="F41" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="111"/>
+      <c r="G41" s="93"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="87" t="s">
+      <c r="B42" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="37" t="s">
@@ -3384,13 +3403,13 @@
       <c r="F42" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="G42" s="89">
+      <c r="G42" s="88">
         <f>SUM(E42:E50)</f>
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="80"/>
+      <c r="B43" s="102"/>
       <c r="C43" s="32" t="s">
         <v>43</v>
       </c>
@@ -3403,10 +3422,10 @@
       <c r="F43" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G43" s="90"/>
+      <c r="G43" s="89"/>
     </row>
     <row r="44" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B44" s="80"/>
+      <c r="B44" s="102"/>
       <c r="C44" s="32" t="s">
         <v>44</v>
       </c>
@@ -3419,10 +3438,10 @@
       <c r="F44" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="G44" s="90"/>
+      <c r="G44" s="89"/>
     </row>
     <row r="45" spans="2:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B45" s="80"/>
+      <c r="B45" s="102"/>
       <c r="C45" s="32" t="s">
         <v>45</v>
       </c>
@@ -3435,10 +3454,10 @@
       <c r="F45" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="90"/>
+      <c r="G45" s="89"/>
     </row>
     <row r="46" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B46" s="80"/>
+      <c r="B46" s="102"/>
       <c r="C46" s="32" t="s">
         <v>46</v>
       </c>
@@ -3451,10 +3470,10 @@
       <c r="F46" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G46" s="90"/>
+      <c r="G46" s="89"/>
     </row>
     <row r="47" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B47" s="80"/>
+      <c r="B47" s="102"/>
       <c r="C47" s="32" t="s">
         <v>47</v>
       </c>
@@ -3467,10 +3486,10 @@
       <c r="F47" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="90"/>
+      <c r="G47" s="89"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="80"/>
+      <c r="B48" s="102"/>
       <c r="C48" s="32" t="s">
         <v>48</v>
       </c>
@@ -3483,10 +3502,10 @@
       <c r="F48" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="90"/>
+      <c r="G48" s="89"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="80"/>
+      <c r="B49" s="102"/>
       <c r="C49" s="34" t="s">
         <v>49</v>
       </c>
@@ -3497,10 +3516,10 @@
       <c r="F49" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="G49" s="90"/>
+      <c r="G49" s="89"/>
     </row>
     <row r="50" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="88"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="31" t="s">
         <v>50</v>
       </c>
@@ -3513,10 +3532,10 @@
       <c r="F50" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G50" s="91"/>
+      <c r="G50" s="90"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="98" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="17" t="s">
@@ -3531,13 +3550,13 @@
       <c r="F51" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="G51" s="99">
+      <c r="G51" s="94">
         <f>SUM(E51:E58)</f>
         <v>11.5</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="84"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="19" t="s">
         <v>52</v>
       </c>
@@ -3550,10 +3569,10 @@
       <c r="F52" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G52" s="100"/>
+      <c r="G52" s="95"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="84"/>
+      <c r="B53" s="99"/>
       <c r="C53" s="19" t="s">
         <v>53</v>
       </c>
@@ -3566,10 +3585,10 @@
       <c r="F53" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G53" s="100"/>
+      <c r="G53" s="95"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="84"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="19" t="s">
         <v>54</v>
       </c>
@@ -3582,10 +3601,10 @@
       <c r="F54" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="100"/>
+      <c r="G54" s="95"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="84"/>
+      <c r="B55" s="99"/>
       <c r="C55" s="16" t="s">
         <v>55</v>
       </c>
@@ -3598,10 +3617,10 @@
       <c r="F55" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G55" s="100"/>
+      <c r="G55" s="95"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="84"/>
+      <c r="B56" s="99"/>
       <c r="C56" s="16" t="s">
         <v>56</v>
       </c>
@@ -3614,10 +3633,10 @@
       <c r="F56" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="100"/>
+      <c r="G56" s="95"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="84"/>
+      <c r="B57" s="99"/>
       <c r="C57" s="16" t="s">
         <v>57</v>
       </c>
@@ -3630,10 +3649,10 @@
       <c r="F57" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G57" s="100"/>
+      <c r="G57" s="95"/>
     </row>
     <row r="58" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="98"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="24" t="s">
         <v>58</v>
       </c>
@@ -3646,10 +3665,10 @@
       <c r="F58" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="101"/>
+      <c r="G58" s="96"/>
     </row>
     <row r="59" spans="2:7" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="101" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="37" t="s">
@@ -3664,13 +3683,13 @@
       <c r="F59" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="82">
+      <c r="G59" s="97">
         <f>SUM(E59:E66)</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="80"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="32" t="s">
         <v>112</v>
       </c>
@@ -3683,10 +3702,10 @@
       <c r="F60" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="82"/>
+      <c r="G60" s="97"/>
     </row>
     <row r="61" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B61" s="80"/>
+      <c r="B61" s="102"/>
       <c r="C61" s="32" t="s">
         <v>113</v>
       </c>
@@ -3699,10 +3718,10 @@
       <c r="F61" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G61" s="82"/>
+      <c r="G61" s="97"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="80"/>
+      <c r="B62" s="102"/>
       <c r="C62" s="32" t="s">
         <v>114</v>
       </c>
@@ -3715,10 +3734,10 @@
       <c r="F62" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="G62" s="82"/>
+      <c r="G62" s="97"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="80"/>
+      <c r="B63" s="102"/>
       <c r="C63" s="32" t="s">
         <v>115</v>
       </c>
@@ -3731,10 +3750,10 @@
       <c r="F63" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="G63" s="82"/>
+      <c r="G63" s="97"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="80"/>
+      <c r="B64" s="102"/>
       <c r="C64" s="32" t="s">
         <v>116</v>
       </c>
@@ -3747,10 +3766,10 @@
       <c r="F64" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="G64" s="82"/>
+      <c r="G64" s="97"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="80"/>
+      <c r="B65" s="102"/>
       <c r="C65" s="32" t="s">
         <v>117</v>
       </c>
@@ -3763,10 +3782,10 @@
       <c r="F65" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G65" s="82"/>
+      <c r="G65" s="97"/>
     </row>
     <row r="66" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="80"/>
+      <c r="B66" s="102"/>
       <c r="C66" s="35" t="s">
         <v>118</v>
       </c>
@@ -3779,10 +3798,10 @@
       <c r="F66" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="G66" s="82"/>
+      <c r="G66" s="97"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="83" t="s">
+      <c r="B67" s="98" t="s">
         <v>17</v>
       </c>
       <c r="C67" s="50" t="s">
@@ -3797,13 +3816,13 @@
       <c r="F67" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="G67" s="99">
+      <c r="G67" s="94">
         <f>SUM(E67:E75)</f>
         <v>25.5</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B68" s="84"/>
+      <c r="B68" s="99"/>
       <c r="C68" s="53" t="s">
         <v>60</v>
       </c>
@@ -3816,10 +3835,10 @@
       <c r="F68" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G68" s="100"/>
+      <c r="G68" s="95"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="84"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="53" t="s">
         <v>61</v>
       </c>
@@ -3832,10 +3851,10 @@
       <c r="F69" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G69" s="100"/>
+      <c r="G69" s="95"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="84"/>
+      <c r="B70" s="99"/>
       <c r="C70" s="53" t="s">
         <v>62</v>
       </c>
@@ -3848,10 +3867,10 @@
       <c r="F70" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G70" s="100"/>
+      <c r="G70" s="95"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="84"/>
+      <c r="B71" s="99"/>
       <c r="C71" s="53" t="s">
         <v>63</v>
       </c>
@@ -3864,10 +3883,10 @@
       <c r="F71" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G71" s="100"/>
+      <c r="G71" s="95"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="84"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="53" t="s">
         <v>135</v>
       </c>
@@ -3880,10 +3899,10 @@
       <c r="F72" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="100"/>
+      <c r="G72" s="95"/>
     </row>
     <row r="73" spans="2:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="B73" s="84"/>
+      <c r="B73" s="99"/>
       <c r="C73" s="53" t="s">
         <v>64</v>
       </c>
@@ -3896,10 +3915,10 @@
       <c r="F73" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G73" s="100"/>
+      <c r="G73" s="95"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="84"/>
+      <c r="B74" s="99"/>
       <c r="C74" s="53" t="s">
         <v>65</v>
       </c>
@@ -3912,10 +3931,10 @@
       <c r="F74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="100"/>
+      <c r="G74" s="95"/>
     </row>
     <row r="75" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="98"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="54" t="s">
         <v>66</v>
       </c>
@@ -3928,10 +3947,10 @@
       <c r="F75" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="G75" s="101"/>
+      <c r="G75" s="96"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="37" t="s">
@@ -3946,13 +3965,13 @@
       <c r="F76" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G76" s="82">
-        <f>SUM(E76:E85)</f>
+      <c r="G76" s="97">
+        <f>SUM(E76:E87)</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="80"/>
+      <c r="B77" s="102"/>
       <c r="C77" s="5" t="s">
         <v>68</v>
       </c>
@@ -3965,10 +3984,10 @@
       <c r="F77" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G77" s="82"/>
+      <c r="G77" s="97"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="80"/>
+      <c r="B78" s="102"/>
       <c r="C78" s="32" t="s">
         <v>69</v>
       </c>
@@ -3981,197 +4000,187 @@
       <c r="F78" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="G78" s="82"/>
+      <c r="G78" s="97"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B79" s="80"/>
+      <c r="B79" s="102"/>
       <c r="C79" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="10">
+        <v>1</v>
+      </c>
+      <c r="E79" s="33">
+        <v>1</v>
+      </c>
+      <c r="F79" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" s="97"/>
+    </row>
+    <row r="80" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B80" s="102"/>
+      <c r="C80" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1</v>
+      </c>
+      <c r="E80" s="33">
+        <v>1</v>
+      </c>
+      <c r="F80" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G80" s="97"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B81" s="111"/>
+      <c r="C81" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" s="10">
+        <v>1</v>
+      </c>
+      <c r="E81" s="8">
+        <v>1</v>
+      </c>
+      <c r="F81" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G81" s="97"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B82" s="111"/>
+      <c r="C82" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D82" s="10">
         <v>5</v>
       </c>
-      <c r="E79" s="33"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="82"/>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="80"/>
-      <c r="C80" s="32" t="s">
+      <c r="E82" s="8"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="97"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="111"/>
+      <c r="C83" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="10">
-        <v>1</v>
-      </c>
-      <c r="E80" s="33"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="82"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" s="80"/>
-      <c r="C81" s="32" t="s">
+      <c r="D83" s="10">
+        <v>1</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="97"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="111"/>
+      <c r="C84" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D84" s="10">
         <v>3</v>
       </c>
-      <c r="E81" s="33"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="82"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="80"/>
-      <c r="C82" s="32" t="s">
+      <c r="E84" s="8"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="97"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="111"/>
+      <c r="C85" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D82" s="10">
-        <v>1</v>
-      </c>
-      <c r="E82" s="33"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="82"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="80"/>
-      <c r="C83" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" s="10">
-        <v>1</v>
-      </c>
-      <c r="E83" s="33">
-        <v>1</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="G83" s="82"/>
-    </row>
-    <row r="84" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B84" s="80"/>
-      <c r="C84" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="10">
-        <v>1</v>
-      </c>
-      <c r="E84" s="33">
-        <v>1</v>
-      </c>
-      <c r="F84" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="G84" s="82"/>
-    </row>
-    <row r="85" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="81"/>
-      <c r="C85" s="35" t="s">
-        <v>72</v>
-      </c>
       <c r="D85" s="10">
         <v>1</v>
       </c>
-      <c r="E85" s="8">
-        <v>1</v>
-      </c>
-      <c r="F85" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G85" s="82"/>
-    </row>
-    <row r="86" spans="2:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="B86" s="83" t="s">
+      <c r="E85" s="8"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="97"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="111"/>
+      <c r="C86" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="97"/>
+    </row>
+    <row r="87" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="111"/>
+      <c r="C87" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="10">
+        <v>1</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="97"/>
+    </row>
+    <row r="88" spans="2:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B88" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C88" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="21">
+      <c r="D88" s="21">
         <v>7.5</v>
       </c>
-      <c r="E86" s="21">
+      <c r="E88" s="21">
         <v>5</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F88" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="G86" s="85">
-        <f>SUM(E86:E91)</f>
+      <c r="G88" s="86">
+        <f>SUM(E88:E93)</f>
         <v>22.5</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B87" s="84"/>
-      <c r="C87" s="19" t="s">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="99"/>
+      <c r="C89" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="20">
+      <c r="D89" s="20">
         <v>5</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E89" s="20">
         <v>5</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F89" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G87" s="86"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B88" s="84"/>
-      <c r="C88" s="19" t="s">
+      <c r="G89" s="87"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B90" s="99"/>
+      <c r="C90" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="20">
+      <c r="D90" s="20">
         <v>10</v>
       </c>
-      <c r="E88" s="62">
+      <c r="E90" s="62">
         <v>10</v>
       </c>
-      <c r="F88" s="63" t="s">
+      <c r="F90" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="G88" s="86"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="84"/>
-      <c r="C89" s="19" t="s">
+      <c r="G90" s="87"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="99"/>
+      <c r="C91" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="D89" s="20">
-        <v>2</v>
-      </c>
-      <c r="E89" s="20">
-        <v>1</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G89" s="86"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B90" s="84"/>
-      <c r="C90" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="20">
-        <v>1</v>
-      </c>
-      <c r="E90" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G90" s="86"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="84"/>
-      <c r="C91" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="D91" s="20">
         <v>2</v>
@@ -4180,209 +4189,243 @@
         <v>1</v>
       </c>
       <c r="F91" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G91" s="87"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B92" s="99"/>
+      <c r="C92" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="20">
+        <v>1</v>
+      </c>
+      <c r="E92" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G92" s="87"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="99"/>
+      <c r="C93" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="20">
+        <v>2</v>
+      </c>
+      <c r="E93" s="20">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="G91" s="86"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B92" s="87" t="s">
+      <c r="G93" s="87"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B94" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C94" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D92" s="38">
+      <c r="D94" s="38">
         <v>5</v>
       </c>
-      <c r="E92" s="38">
-        <v>1</v>
-      </c>
-      <c r="F92" s="39" t="s">
+      <c r="E94" s="38">
+        <v>1</v>
+      </c>
+      <c r="F94" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="G92" s="89">
-        <f>SUM(E92:E97)</f>
+      <c r="G94" s="88">
+        <f>SUM(E94:E99)</f>
         <v>7</v>
       </c>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="2:9" ht="99" x14ac:dyDescent="0.3">
-      <c r="B93" s="80"/>
-      <c r="C93" s="32" t="s">
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="2:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="B95" s="102"/>
+      <c r="C95" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D95" s="33">
         <v>7</v>
       </c>
-      <c r="E93" s="33">
-        <v>1</v>
-      </c>
-      <c r="F93" s="34" t="s">
+      <c r="E95" s="33">
+        <v>1</v>
+      </c>
+      <c r="F95" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G93" s="90"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B94" s="80"/>
-      <c r="C94" s="32" t="s">
+      <c r="G95" s="89"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B96" s="102"/>
+      <c r="C96" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D94" s="33">
+      <c r="D96" s="33">
         <v>4.5</v>
       </c>
-      <c r="E94" s="33">
+      <c r="E96" s="33">
         <v>0.5</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="F96" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="G94" s="90"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B95" s="80"/>
-      <c r="C95" s="32" t="s">
+      <c r="G96" s="89"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B97" s="102"/>
+      <c r="C97" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D95" s="33">
+      <c r="D97" s="33">
         <v>5</v>
       </c>
-      <c r="E95" s="62">
+      <c r="E97" s="62">
         <v>2.5</v>
       </c>
-      <c r="F95" s="64" t="s">
+      <c r="F97" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="G95" s="90"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="2:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="B96" s="80"/>
-      <c r="C96" s="32" t="s">
+      <c r="G97" s="89"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="2:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="B98" s="102"/>
+      <c r="C98" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="D96" s="33">
+      <c r="D98" s="33">
         <v>5</v>
       </c>
-      <c r="E96" s="33">
-        <v>1</v>
-      </c>
-      <c r="F96" s="34" t="s">
+      <c r="E98" s="33">
+        <v>1</v>
+      </c>
+      <c r="F98" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G96" s="90"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="2:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="88"/>
-      <c r="C97" s="35" t="s">
+      <c r="G98" s="89"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="2:9" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="110"/>
+      <c r="C99" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D97" s="36">
+      <c r="D99" s="36">
         <v>3</v>
       </c>
-      <c r="E97" s="36">
-        <v>1</v>
-      </c>
-      <c r="F97" s="31" t="s">
+      <c r="E99" s="36">
+        <v>1</v>
+      </c>
+      <c r="F99" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G97" s="91"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="56" t="s">
+      <c r="G99" s="90"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="56" t="s">
+      <c r="C102" s="56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B101" s="57" t="s">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C101" s="71" t="s">
+      <c r="C103" s="71" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B102" s="58" t="s">
+    <row r="104" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B104" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="60" t="s">
+      <c r="C104" s="60" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B103" s="58" t="s">
+    <row r="105" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B105" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="69" t="s">
+      <c r="C105" s="69" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="2:9" ht="27" x14ac:dyDescent="0.3">
-      <c r="B104" s="58" t="s">
+    <row r="106" spans="2:9" ht="27" x14ac:dyDescent="0.3">
+      <c r="B106" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C104" s="70" t="s">
+      <c r="C106" s="70" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="2:9" ht="54" x14ac:dyDescent="0.3">
-      <c r="B105" s="58" t="s">
+    <row r="107" spans="2:9" ht="54" x14ac:dyDescent="0.3">
+      <c r="B107" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C107" s="59" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="B106" s="57" t="s">
+    <row r="108" spans="2:9" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B108" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="C106" s="59" t="s">
+      <c r="C108" s="59" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B107" s="57" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B109" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C107" s="65" t="s">
+      <c r="C109" s="65" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="G7:G19"/>
-    <mergeCell ref="G20:G31"/>
-    <mergeCell ref="G32:G41"/>
+    <mergeCell ref="B76:B87"/>
+    <mergeCell ref="G76:G87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="G88:G93"/>
+    <mergeCell ref="B94:B99"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="B32:B41"/>
+    <mergeCell ref="B42:B50"/>
+    <mergeCell ref="B67:B75"/>
     <mergeCell ref="G42:G50"/>
     <mergeCell ref="G51:G58"/>
     <mergeCell ref="G59:G66"/>
     <mergeCell ref="G67:G75"/>
     <mergeCell ref="B51:B58"/>
     <mergeCell ref="B59:B66"/>
-    <mergeCell ref="B7:B19"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="B42:B50"/>
-    <mergeCell ref="B67:B75"/>
-    <mergeCell ref="B76:B85"/>
-    <mergeCell ref="G76:G85"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="G86:G91"/>
-    <mergeCell ref="B92:B97"/>
-    <mergeCell ref="G92:G97"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="G7:G19"/>
+    <mergeCell ref="G20:G31"/>
+    <mergeCell ref="G32:G41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G7:G97">
+  <conditionalFormatting sqref="G7:G99">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>15</formula>
     </cfRule>
@@ -4429,7 +4472,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -4442,13 +4485,13 @@
       <c r="E2" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="85">
+      <c r="F2" s="86">
         <f>SUM(D2:D14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="19" t="s">
         <v>152</v>
       </c>
@@ -4459,10 +4502,10 @@
       <c r="E3" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="86"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="19" t="s">
         <v>153</v>
       </c>
@@ -4473,10 +4516,10 @@
       <c r="E4" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="92"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="72" t="s">
         <v>154</v>
       </c>
@@ -4487,10 +4530,10 @@
       <c r="E5" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="72" t="s">
         <v>155</v>
       </c>
@@ -4501,10 +4544,10 @@
       <c r="E6" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="86"/>
+      <c r="F6" s="87"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="72" t="s">
         <v>156</v>
       </c>
@@ -4515,10 +4558,10 @@
       <c r="E7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="86"/>
+      <c r="F7" s="87"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="72" t="s">
         <v>157</v>
       </c>
@@ -4529,10 +4572,10 @@
       <c r="E8" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="86"/>
+      <c r="F8" s="87"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="72" t="s">
         <v>158</v>
       </c>
@@ -4543,10 +4586,10 @@
       <c r="E9" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F9" s="86"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="72" t="s">
         <v>159</v>
       </c>
@@ -4557,10 +4600,10 @@
       <c r="E10" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="F10" s="86"/>
+      <c r="F10" s="87"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="72" t="s">
         <v>160</v>
       </c>
@@ -4571,10 +4614,10 @@
       <c r="E11" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="F11" s="86"/>
+      <c r="F11" s="87"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="72" t="s">
         <v>161</v>
       </c>
@@ -4585,10 +4628,10 @@
       <c r="E12" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="86"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="72" t="s">
         <v>162</v>
       </c>
@@ -4599,10 +4642,10 @@
       <c r="E13" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="86"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
+      <c r="A14" s="103"/>
       <c r="B14" s="74" t="s">
         <v>163</v>
       </c>
@@ -4613,7 +4656,7 @@
       <c r="E14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="86"/>
+      <c r="F14" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
